--- a/output/fit_clients/fit_round_484.xlsx
+++ b/output/fit_clients/fit_round_484.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1985967247.617107</v>
+        <v>1761283527.666913</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07752904198248256</v>
+        <v>0.0984296144203905</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04328854545045983</v>
+        <v>0.03981025335268778</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>992983617.5679698</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2177582208.715338</v>
+        <v>1854755582.725032</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1641349360308119</v>
+        <v>0.1595354757945584</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0333855959003244</v>
+        <v>0.0490518806829363</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1088791171.946586</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4944018022.665318</v>
+        <v>3933706684.504493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1043552751878892</v>
+        <v>0.1467324824685938</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02435586708309513</v>
+        <v>0.03304932256720154</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>174</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2472009092.410648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3493549891.775941</v>
+        <v>4036009447.895996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07478550390004852</v>
+        <v>0.1107360288784517</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03672067491986018</v>
+        <v>0.04131223208190841</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>178</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1746774983.081833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2164545298.122693</v>
+        <v>2010255069.058955</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1098958906251642</v>
+        <v>0.1042692050081158</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04618733473196345</v>
+        <v>0.04526944742062803</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>93</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1082272660.870643</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3029329033.904443</v>
+        <v>2342909564.399859</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09568990846131295</v>
+        <v>0.0834372826443764</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03220000585378489</v>
+        <v>0.03129151992823306</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>151</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1514664479.02894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3388084536.563875</v>
+        <v>3776408437.18047</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2161253357520946</v>
+        <v>0.1460191147719011</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02218823502610365</v>
+        <v>0.02238721823041295</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>155</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1694042365.492288</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2277335871.783222</v>
+        <v>1433884158.849377</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1583975630939617</v>
+        <v>0.1285517953284054</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03559948014108459</v>
+        <v>0.03715903928907503</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1138667924.042762</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4517432967.666833</v>
+        <v>5886237573.220227</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1718107578117741</v>
+        <v>0.1564564837988059</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05073619228385683</v>
+        <v>0.03713986099745142</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>203</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2258716545.807575</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2577037372.962619</v>
+        <v>2811686012.216166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1782062742563321</v>
+        <v>0.1573369648847779</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03359218929687759</v>
+        <v>0.03840212071577542</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>199</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1288518599.925559</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2358034262.229707</v>
+        <v>3114607047.659965</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1860835910964063</v>
+        <v>0.1269217548212143</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03490389071681395</v>
+        <v>0.04780272797004168</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>164</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1179017090.362121</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4174832827.7904</v>
+        <v>4867131578.914841</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08028729334614805</v>
+        <v>0.06535859739463482</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02451367503025333</v>
+        <v>0.02579586054415244</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>162</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2087416459.965952</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2423918395.785455</v>
+        <v>3848377266.510197</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1240652940889019</v>
+        <v>0.1713370718248213</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03906499386954009</v>
+        <v>0.04118826004742621</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>155</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1211959274.070808</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1584511343.240296</v>
+        <v>1791774201.109866</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09964937400604647</v>
+        <v>0.07054215664172678</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04001609254657885</v>
+        <v>0.03158677888094006</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>792255776.3054047</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2392148730.247312</v>
+        <v>2088959117.045884</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07035669596697232</v>
+        <v>0.09502599969065216</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04509185632374531</v>
+        <v>0.04125298796653595</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>100</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1196074405.600221</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4225344648.170306</v>
+        <v>4205555487.603429</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1741659290689066</v>
+        <v>0.1527955976112523</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03286943648949058</v>
+        <v>0.03656066944968963</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2112672347.524493</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3226681780.242884</v>
+        <v>2477838208.935321</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1738477938198391</v>
+        <v>0.167864221713426</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03130373361913983</v>
+        <v>0.02127552151250607</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>158</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1613340903.949521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1015297787.134963</v>
+        <v>979297358.7856592</v>
       </c>
       <c r="F19" t="n">
-        <v>0.134366121722231</v>
+        <v>0.1911679412988811</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02301840917097236</v>
+        <v>0.02701879189034432</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>507648926.5289511</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1737486831.381374</v>
+        <v>2053318001.784299</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1294167543108835</v>
+        <v>0.1440264730265685</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02399133427045893</v>
+        <v>0.02470629031871222</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>868743470.0056585</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2634708365.50621</v>
+        <v>2017257001.48476</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09895315024126226</v>
+        <v>0.06730855653424073</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03686195254686406</v>
+        <v>0.03065058612882821</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1317354158.025543</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2743480937.494236</v>
+        <v>3122956632.700706</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1052705020962719</v>
+        <v>0.08948388958527687</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05214362997751097</v>
+        <v>0.03507013970100587</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>136</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1371740545.658715</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>955034789.4420052</v>
+        <v>971006384.008383</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1489139196334839</v>
+        <v>0.1389233663219686</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03700217278292635</v>
+        <v>0.05069286671738737</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>477517472.4917555</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3651830183.114004</v>
+        <v>2929360206.662771</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1244575899124544</v>
+        <v>0.1210299125779357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02313842995839947</v>
+        <v>0.03363302841448226</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>141</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1825915082.986025</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1281288125.469194</v>
+        <v>1023270910.387798</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09350123799719345</v>
+        <v>0.1072520306016181</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02541597496193479</v>
+        <v>0.01911593938221344</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>640644062.0430309</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>965267492.2813088</v>
+        <v>1381217418.268666</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08629421799931167</v>
+        <v>0.08351424467850388</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03688514640061595</v>
+        <v>0.02901607781225019</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>482633709.7523428</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4020744284.208176</v>
+        <v>3032515623.279555</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1093728169396739</v>
+        <v>0.09779262106124358</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02491921227563547</v>
+        <v>0.02219251484641355</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>125</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2010372151.229213</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2552994959.992947</v>
+        <v>3677271695.082992</v>
       </c>
       <c r="F28" t="n">
-        <v>0.136207304629518</v>
+        <v>0.1210213412315128</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03497825102662716</v>
+        <v>0.04952612479204127</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1276497452.467818</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5832868996.606302</v>
+        <v>5039731352.823884</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1271346154638523</v>
+        <v>0.1421881813238618</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04536736314079606</v>
+        <v>0.03645144917716405</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>213</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2916434388.187655</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1543356113.502447</v>
+        <v>2000466950.186831</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1395232614584745</v>
+        <v>0.08547761024412653</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02969650035956828</v>
+        <v>0.0367232404560375</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>771678042.2217277</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1262923623.869625</v>
+        <v>1147966172.357456</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07762533793932098</v>
+        <v>0.0860785509616137</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04079016612918539</v>
+        <v>0.03542306006959584</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>631461748.6011298</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1862240060.860447</v>
+        <v>1626003286.415513</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1195649616961752</v>
+        <v>0.09415032348584659</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02703136897340951</v>
+        <v>0.03418288396005732</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>931120173.8252305</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2782749419.616355</v>
+        <v>2513878263.887293</v>
       </c>
       <c r="F33" t="n">
-        <v>0.165584083954772</v>
+        <v>0.1392757019545526</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04590983650012942</v>
+        <v>0.0401321732941919</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>150</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1391374723.962213</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>975931907.5723714</v>
+        <v>1359131091.728845</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08758351150798688</v>
+        <v>0.07765420203569334</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02038088807044982</v>
+        <v>0.02735120487819579</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>487965995.6507769</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1224406243.535942</v>
+        <v>1194557693.346219</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07343422888516547</v>
+        <v>0.1098835043602905</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03659999428819351</v>
+        <v>0.0398129149286041</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>612203091.1563507</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2652884560.778059</v>
+        <v>2829401498.711396</v>
       </c>
       <c r="F36" t="n">
-        <v>0.181078256163448</v>
+        <v>0.1439377854639563</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0178332744058524</v>
+        <v>0.0238187355000748</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>122</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1326442290.147936</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2627331585.194871</v>
+        <v>2147250043.444332</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1056162438552657</v>
+        <v>0.09597198121721784</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0363593632985873</v>
+        <v>0.04047691993973849</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>130</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1313665906.227731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1891461657.824105</v>
+        <v>1878904486.67783</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09450639008806634</v>
+        <v>0.1203725095164296</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02803607111067792</v>
+        <v>0.03464744936032283</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>945730822.89283</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152187605.603259</v>
+        <v>2191859083.940988</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1717301424267532</v>
+        <v>0.1810834844941437</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03152795406494542</v>
+        <v>0.02509622792318979</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1076093774.24408</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1188158449.204041</v>
+        <v>1338814601.351021</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1310798053534747</v>
+        <v>0.1085892063899955</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0395315385444112</v>
+        <v>0.05803947639540598</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>594079268.8799007</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2724846377.129539</v>
+        <v>2392956882.903602</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1664640320558239</v>
+        <v>0.1506468584242002</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03339395385818291</v>
+        <v>0.04465534487794312</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>117</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1362423191.817479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3927812893.161597</v>
+        <v>3237931056.725463</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08473251837314355</v>
+        <v>0.1012980342256797</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0306661800484656</v>
+        <v>0.04360131859603254</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1963906470.893635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2893669788.121596</v>
+        <v>2160467985.733383</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1986532425183278</v>
+        <v>0.1775906225268166</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02268973731696817</v>
+        <v>0.02521255254820711</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>168</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1446834903.143967</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1933557417.924785</v>
+        <v>1576496473.605941</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08996589490982512</v>
+        <v>0.07505099729070708</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03320473038891261</v>
+        <v>0.0319776395835834</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>966778802.0631362</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1675692881.031594</v>
+        <v>1707899483.870435</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1657321300832317</v>
+        <v>0.1342950898325594</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05201682907028812</v>
+        <v>0.03532012873662656</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>837846398.7042229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3930905530.024135</v>
+        <v>5607592209.072231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.144077640606716</v>
+        <v>0.1481146782361664</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05257385127137691</v>
+        <v>0.04824214851337306</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>172</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1965452730.652244</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4009651438.02487</v>
+        <v>3709400817.672431</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1311896181383173</v>
+        <v>0.1988002158582101</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05837427478735082</v>
+        <v>0.04827635763404869</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>131</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2004825718.694278</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3890823216.921304</v>
+        <v>4530913475.921566</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1057448640821046</v>
+        <v>0.0753891599238919</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0378034536310899</v>
+        <v>0.02813838936173694</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>159</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1945411649.174925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1959238720.688992</v>
+        <v>1256977362.05913</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1531344585774697</v>
+        <v>0.1860307608864274</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04399666384672503</v>
+        <v>0.03162836237651383</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>979619320.9947175</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2934407328.928142</v>
+        <v>3240983920.34946</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1597260708622405</v>
+        <v>0.1583915070731958</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04685959023200165</v>
+        <v>0.03916246922811054</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>166</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1467203728.967752</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1239218818.257865</v>
+        <v>961895141.3562126</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1804006536710493</v>
+        <v>0.1319040252625012</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04283324313634024</v>
+        <v>0.04666650446026507</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>619609454.3460206</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5193574905.566773</v>
+        <v>4317842862.849071</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1275716776346433</v>
+        <v>0.1392682233433062</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05491072987751622</v>
+        <v>0.04375936124073226</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>199</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2596787439.039987</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3493554551.986131</v>
+        <v>3403451699.898215</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1519737037156305</v>
+        <v>0.1297833852558063</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03208985056997397</v>
+        <v>0.02652800758991216</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1746777274.371082</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4776029792.98753</v>
+        <v>3404197275.383226</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1383322913167693</v>
+        <v>0.1161836373054784</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04039050241766155</v>
+        <v>0.03310370532813273</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>159</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2388015021.512179</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3214237911.331937</v>
+        <v>4991095218.716865</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1883813226983267</v>
+        <v>0.2165422616811927</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02660014204304246</v>
+        <v>0.02648915687606258</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1607118895.898463</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1601354603.429332</v>
+        <v>1363964617.123822</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09994053603129201</v>
+        <v>0.1247801640072436</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05370441631599256</v>
+        <v>0.03578970999368247</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>800677328.9922186</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4235145078.903144</v>
+        <v>4205323127.404104</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1517578689162851</v>
+        <v>0.1247994501270608</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01771303953613856</v>
+        <v>0.01776165645633149</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>153</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2117572647.583523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1788440140.2115</v>
+        <v>1584539454.58</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1252420188472624</v>
+        <v>0.1565916622632426</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03241842285612897</v>
+        <v>0.03604215446130563</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>894220074.9568094</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4766889047.566358</v>
+        <v>4637948429.889868</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1087716157025024</v>
+        <v>0.1283341080271901</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03068620164957813</v>
+        <v>0.04234897632210098</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>138</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2383444462.759533</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3703430943.204623</v>
+        <v>3456107235.569828</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1790408569614056</v>
+        <v>0.1946824499079125</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02553136396459902</v>
+        <v>0.03157490742415518</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>154</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1851715615.761174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2726292882.487357</v>
+        <v>2687009421.553186</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1536392566774072</v>
+        <v>0.1704489551310309</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02285278835272328</v>
+        <v>0.03159866375906374</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>166</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1363146447.543555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1924622691.030564</v>
+        <v>1998124662.789073</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1840680882557546</v>
+        <v>0.1657243918430574</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03775631659936835</v>
+        <v>0.04804275389932417</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>962311392.2951179</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3427152813.301032</v>
+        <v>4438178815.387166</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1063850135360429</v>
+        <v>0.08143807941312226</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0358660461502689</v>
+        <v>0.0368162705878086</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>139</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1713576494.596324</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5263499160.002595</v>
+        <v>3713301015.96863</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1834488082583452</v>
+        <v>0.1752946922643453</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03009586100823933</v>
+        <v>0.03182676754537835</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>150</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2631749704.761663</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5367764583.263259</v>
+        <v>4195691105.32</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1077111102495304</v>
+        <v>0.1363837938153229</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02012968708793112</v>
+        <v>0.03059063458640288</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>173</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2683882228.621656</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4360931054.486553</v>
+        <v>3917072648.879043</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1226680554113019</v>
+        <v>0.116000536333744</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03636270155464201</v>
+        <v>0.04526258111020191</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>141</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2180465520.168729</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2725614409.228098</v>
+        <v>3102022452.809005</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09460268625158179</v>
+        <v>0.08608327841613486</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04693115420140311</v>
+        <v>0.03158037248317</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>155</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1362807246.100702</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6069400671.594947</v>
+        <v>4301643860.501724</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1493953969178186</v>
+        <v>0.1461896993294734</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03683483254705724</v>
+        <v>0.03344123620625314</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>156</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3034700457.028049</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1580578159.657378</v>
+        <v>1540390374.476663</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1341448900980144</v>
+        <v>0.1491790744004112</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05273637684546029</v>
+        <v>0.0515218903713446</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>790289030.5769273</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3192410783.503149</v>
+        <v>3017513249.955774</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07830681260417</v>
+        <v>0.07162510928046625</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03069470954929572</v>
+        <v>0.03590006235644731</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>139</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1596205381.244694</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5148473041.163881</v>
+        <v>4615915604.532776</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1187984092917157</v>
+        <v>0.1661767632666034</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02601692296155344</v>
+        <v>0.02793880026212424</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>176</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2574236637.397036</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2215969851.695459</v>
+        <v>2198692365.837796</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06827819232611197</v>
+        <v>0.07295419579387701</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04811694980384478</v>
+        <v>0.03802973754827199</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1107984837.392188</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3315364789.036248</v>
+        <v>3043015855.302907</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0732147529506266</v>
+        <v>0.09981619978079749</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04078487190597845</v>
+        <v>0.03887271825714942</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>182</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1657682361.646673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3992815040.29682</v>
+        <v>3382923853.369061</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1533026471391293</v>
+        <v>0.1728643612401917</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02808251329495888</v>
+        <v>0.0321163103465265</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>165</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1996407499.70225</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1529162672.513529</v>
+        <v>1878337870.883006</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1179853138332587</v>
+        <v>0.1209575511933092</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02868991346219846</v>
+        <v>0.03219953170721186</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>764581344.599582</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3539326411.187686</v>
+        <v>3369696038.652452</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08145883666439364</v>
+        <v>0.1195304802106787</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02632147363322436</v>
+        <v>0.03092902380863409</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1769663170.991287</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1570030564.085679</v>
+        <v>1769868254.224738</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1459711712251026</v>
+        <v>0.1340385286489331</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02633285456266003</v>
+        <v>0.02398402321592691</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>785015280.0845206</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4797801758.172859</v>
+        <v>4183496232.225037</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1246756358711653</v>
+        <v>0.1084502434074355</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05642340076671149</v>
+        <v>0.03533221126326393</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>168</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2398900787.738915</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1926568295.872931</v>
+        <v>1592797872.286466</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1270042671391394</v>
+        <v>0.167983163374215</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02723380975888044</v>
+        <v>0.03339635955636606</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>963284256.7509058</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4174612930.821802</v>
+        <v>4827634515.309274</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08127242604735678</v>
+        <v>0.1020724165964814</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03814343999365807</v>
+        <v>0.03199314687352868</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2087306473.57069</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3140790219.780364</v>
+        <v>4877970986.407522</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09481479206379956</v>
+        <v>0.1250919464610461</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02109641208052745</v>
+        <v>0.03060464449348254</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1570395041.229112</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4741212784.815495</v>
+        <v>5668143080.122562</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1579319887007163</v>
+        <v>0.2095972162483024</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02801878691003181</v>
+        <v>0.02661988616149854</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>169</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2370606390.828069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1507766702.537515</v>
+        <v>2392163776.173268</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09566122998717809</v>
+        <v>0.1176373576999246</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03979458851232902</v>
+        <v>0.03101554222821716</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>753883275.3384939</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2553339417.638623</v>
+        <v>2546916626.174709</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09515430435328509</v>
+        <v>0.1156148024942259</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04559990755008662</v>
+        <v>0.05132464054034264</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1276669632.864057</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3590311844.967796</v>
+        <v>2811498492.736621</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1204288753343041</v>
+        <v>0.1808951434779614</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05539319711499455</v>
+        <v>0.04923454048580544</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>181</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1795156047.807357</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2325724606.68326</v>
+        <v>2663341353.390209</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1702818056246331</v>
+        <v>0.1340484012599097</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02727810916414185</v>
+        <v>0.02051944761101312</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1162862376.282438</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1245844799.045983</v>
+        <v>991159272.2120914</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1596931144648315</v>
+        <v>0.137921979953684</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03252584990647462</v>
+        <v>0.02725583230347917</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>622922466.8826391</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2608868065.003842</v>
+        <v>2330261745.356044</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1074512571932459</v>
+        <v>0.1734352968393858</v>
       </c>
       <c r="G88" t="n">
-        <v>0.04006800114947048</v>
+        <v>0.03380325268294176</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>192</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1304434024.303579</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2520055642.572149</v>
+        <v>2431481384.856781</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1227843946330666</v>
+        <v>0.1379583080644585</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03526858112021541</v>
+        <v>0.02620530593145835</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>164</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1260027894.612946</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2040423869.754825</v>
+        <v>1592464692.610689</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08756935167891186</v>
+        <v>0.1147680495847592</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0475817588818568</v>
+        <v>0.04771084399015147</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1020212012.524162</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1671237319.053947</v>
+        <v>1993796510.720075</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1620727615216658</v>
+        <v>0.1255655155114195</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05950589827952034</v>
+        <v>0.04876031343966095</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>835618675.6650254</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2606310065.453126</v>
+        <v>1871367985.736894</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1029454130718717</v>
+        <v>0.09152630997772462</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04035578834145776</v>
+        <v>0.03939517760155894</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1303155024.71964</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4662932954.008943</v>
+        <v>4862539812.628479</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1344296754334426</v>
+        <v>0.1270330210715793</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04868806521563753</v>
+        <v>0.03430174930680129</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>147</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2331466434.758894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2316887516.053392</v>
+        <v>2476570567.336203</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1523291522378504</v>
+        <v>0.1336489154279094</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03476563438909822</v>
+        <v>0.03346505307171876</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1158443797.616866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3060130933.637569</v>
+        <v>2162385003.422967</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09899878234809754</v>
+        <v>0.1026219831986093</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0491652825079008</v>
+        <v>0.03622989187589225</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1530065462.232023</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2064041730.510269</v>
+        <v>2372385586.604174</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0880434079950277</v>
+        <v>0.08967683207330662</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04276760148260829</v>
+        <v>0.03921698629460417</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1032020845.438868</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3499245121.731786</v>
+        <v>4052848226.005505</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1729246957186535</v>
+        <v>0.1424678260901938</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01908029401765705</v>
+        <v>0.02072475189011025</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>155</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1749622576.991897</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3107652022.057796</v>
+        <v>2947275117.897617</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08194137928866661</v>
+        <v>0.1255072192969051</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03216521925069335</v>
+        <v>0.02146996272903017</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>129</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1553826003.051569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2286897175.564774</v>
+        <v>2681841699.076005</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1325142711679245</v>
+        <v>0.1360506409304674</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02290302712401255</v>
+        <v>0.03121049102022997</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>155</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1143448522.06202</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4427458479.308702</v>
+        <v>4478687717.217604</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1697346794659473</v>
+        <v>0.1166046176991954</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02663067654636035</v>
+        <v>0.02045881516026788</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>147</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2213729344.481264</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2452266351.307459</v>
+        <v>3427747805.38127</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1674274965002985</v>
+        <v>0.1782843790902285</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05663943627835535</v>
+        <v>0.05105381320914343</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>197</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1226133192.322842</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_484.xlsx
+++ b/output/fit_clients/fit_round_484.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1761283527.666913</v>
+        <v>2499198658.030288</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0984296144203905</v>
+        <v>0.09743142217753453</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03981025335268778</v>
+        <v>0.03682691779427381</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1854755582.725032</v>
+        <v>2343190877.777342</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1595354757945584</v>
+        <v>0.1312349502321039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0490518806829363</v>
+        <v>0.04198581909932646</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3933706684.504493</v>
+        <v>4561133373.635692</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1467324824685938</v>
+        <v>0.1584511949914508</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03304932256720154</v>
+        <v>0.0240128722548906</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4036009447.895996</v>
+        <v>4134788636.475749</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1107360288784517</v>
+        <v>0.08125272527257167</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04131223208190841</v>
+        <v>0.03383998132463242</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2010255069.058955</v>
+        <v>2876169721.273604</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1042692050081158</v>
+        <v>0.095846898070872</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04526944742062803</v>
+        <v>0.05517718045740727</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2342909564.399859</v>
+        <v>2179624059.424793</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0834372826443764</v>
+        <v>0.09950373715032103</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03129151992823306</v>
+        <v>0.0308265974741243</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3776408437.18047</v>
+        <v>3707879974.659055</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1460191147719011</v>
+        <v>0.186121995143938</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02238721823041295</v>
+        <v>0.02451490077014421</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1433884158.849377</v>
+        <v>1592490509.324507</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1285517953284054</v>
+        <v>0.1333657715051218</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03715903928907503</v>
+        <v>0.02776288528138133</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5886237573.220227</v>
+        <v>4075510697.709595</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1564564837988059</v>
+        <v>0.1888735237166705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03713986099745142</v>
+        <v>0.03970910920165753</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2811686012.216166</v>
+        <v>3846236168.928325</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1573369648847779</v>
+        <v>0.1775884912268579</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03840212071577542</v>
+        <v>0.03264820483637138</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3114607047.659965</v>
+        <v>3300721287.293345</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1269217548212143</v>
+        <v>0.1437736941782531</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04780272797004168</v>
+        <v>0.05316136815501226</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4867131578.914841</v>
+        <v>4741840234.152292</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06535859739463482</v>
+        <v>0.0877374677477917</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02579586054415244</v>
+        <v>0.0306746955053957</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3848377266.510197</v>
+        <v>2387516853.146327</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1713370718248213</v>
+        <v>0.1345302526718427</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04118826004742621</v>
+        <v>0.03159278030528484</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1791774201.109866</v>
+        <v>1618239847.077061</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07054215664172678</v>
+        <v>0.1026139371721605</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03158677888094006</v>
+        <v>0.03184296376971164</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2088959117.045884</v>
+        <v>2244989117.890309</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09502599969065216</v>
+        <v>0.07236579816658996</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04125298796653595</v>
+        <v>0.04453530450507262</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4205555487.603429</v>
+        <v>5043635931.599147</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1527955976112523</v>
+        <v>0.1056338736759488</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03656066944968963</v>
+        <v>0.04355581489971642</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2477838208.935321</v>
+        <v>2716938369.34963</v>
       </c>
       <c r="F18" t="n">
-        <v>0.167864221713426</v>
+        <v>0.1408844761067156</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02127552151250607</v>
+        <v>0.02813672206645575</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>979297358.7856592</v>
+        <v>1065918910.65611</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1911679412988811</v>
+        <v>0.1883405003026119</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02701879189034432</v>
+        <v>0.02721611509368545</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2053318001.784299</v>
+        <v>2289788871.281471</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1440264730265685</v>
+        <v>0.1221052925131206</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02470629031871222</v>
+        <v>0.01999732879423673</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2017257001.48476</v>
+        <v>2626048242.056453</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06730855653424073</v>
+        <v>0.08950578132367219</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03065058612882821</v>
+        <v>0.03497303299980238</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3122956632.700706</v>
+        <v>2625019425.5675</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08948388958527687</v>
+        <v>0.122081724935664</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03507013970100587</v>
+        <v>0.04964781055272349</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>971006384.008383</v>
+        <v>1043798983.01584</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1389233663219686</v>
+        <v>0.1170817536663761</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05069286671738737</v>
+        <v>0.04229408364236963</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2929360206.662771</v>
+        <v>2785989385.213311</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1210299125779357</v>
+        <v>0.09687114036160538</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03363302841448226</v>
+        <v>0.02869874584826772</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1023270910.387798</v>
+        <v>1165575006.665817</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1072520306016181</v>
+        <v>0.1222644118549098</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01911593938221344</v>
+        <v>0.01859896249594689</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1381217418.268666</v>
+        <v>1361248588.73791</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08351424467850388</v>
+        <v>0.105715652766885</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02901607781225019</v>
+        <v>0.02714376766647677</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3032515623.279555</v>
+        <v>4081107380.267569</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09779262106124358</v>
+        <v>0.1223076707979191</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02219251484641355</v>
+        <v>0.01932743195872483</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3677271695.082992</v>
+        <v>2471257228.441763</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1210213412315128</v>
+        <v>0.1240725701953582</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04952612479204127</v>
+        <v>0.04020917737122234</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,19 +1236,19 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5039731352.823884</v>
+        <v>3772108520.931262</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1421881813238618</v>
+        <v>0.1280131360585234</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03645144917716405</v>
+        <v>0.03342633813244822</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2000466950.186831</v>
+        <v>2117687919.718839</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08547761024412653</v>
+        <v>0.1068892019026743</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0367232404560375</v>
+        <v>0.03457823046370201</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1147966172.357456</v>
+        <v>1423765392.044879</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0860785509616137</v>
+        <v>0.07722113056288267</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03542306006959584</v>
+        <v>0.03523195254975027</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1626003286.415513</v>
+        <v>1717941489.243193</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09415032348584659</v>
+        <v>0.09159178609416933</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03418288396005732</v>
+        <v>0.02878181411489488</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2513878263.887293</v>
+        <v>2854671978.956183</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1392757019545526</v>
+        <v>0.1768617119484137</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0401321732941919</v>
+        <v>0.05515134129380612</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1359131091.728845</v>
+        <v>1154896694.406647</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07765420203569334</v>
+        <v>0.1043827218477838</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02735120487819579</v>
+        <v>0.02716291248395921</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1194557693.346219</v>
+        <v>921024132.7594717</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1098835043602905</v>
+        <v>0.1079239449081726</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0398129149286041</v>
+        <v>0.04525723613416611</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2829401498.711396</v>
+        <v>2015683444.703655</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1439377854639563</v>
+        <v>0.1719763763886728</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0238187355000748</v>
+        <v>0.02320898257789692</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2147250043.444332</v>
+        <v>2869601561.282671</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09597198121721784</v>
+        <v>0.07225359012283483</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04047691993973849</v>
+        <v>0.03134657126998308</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1878904486.67783</v>
+        <v>1378086119.001762</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1203725095164296</v>
+        <v>0.1089815632411305</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03464744936032283</v>
+        <v>0.03587353882596411</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2191859083.940988</v>
+        <v>1360692515.414698</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1810834844941437</v>
+        <v>0.1589553904723399</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02509622792318979</v>
+        <v>0.03027685245126379</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1338814601.351021</v>
+        <v>1327901653.033005</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1085892063899955</v>
+        <v>0.1613486352626521</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05803947639540598</v>
+        <v>0.05508011051247797</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2392956882.903602</v>
+        <v>1800755508.947551</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1506468584242002</v>
+        <v>0.1639307730390834</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04465534487794312</v>
+        <v>0.03491017916734884</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3237931056.725463</v>
+        <v>4333708861.401478</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1012980342256797</v>
+        <v>0.07744638668563777</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04360131859603254</v>
+        <v>0.03408074728105976</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2160467985.733383</v>
+        <v>2783804594.919559</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1775906225268166</v>
+        <v>0.1715825968738442</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02521255254820711</v>
+        <v>0.02092830608561686</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1576496473.605941</v>
+        <v>2061921684.345826</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07505099729070708</v>
+        <v>0.06998541095583993</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0319776395835834</v>
+        <v>0.02826992987766321</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1707899483.870435</v>
+        <v>2072113686.794496</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1342950898325594</v>
+        <v>0.1382643396533886</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03532012873662656</v>
+        <v>0.05470398739352277</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5607592209.072231</v>
+        <v>5345749097.367608</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1481146782361664</v>
+        <v>0.1236725708491772</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04824214851337306</v>
+        <v>0.05959179895265475</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3709400817.672431</v>
+        <v>5151634804.475772</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1988002158582101</v>
+        <v>0.1513543928336258</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04827635763404869</v>
+        <v>0.05415045971340109</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4530913475.921566</v>
+        <v>4543092586.657629</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0753891599238919</v>
+        <v>0.0669712572945844</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02813838936173694</v>
+        <v>0.02853587332986419</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1256977362.05913</v>
+        <v>1453969547.118803</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1860307608864274</v>
+        <v>0.1710359585573555</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03162836237651383</v>
+        <v>0.02908735188177864</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3240983920.34946</v>
+        <v>3155806320.370596</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1583915070731958</v>
+        <v>0.1389950777310994</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03916246922811054</v>
+        <v>0.0473404067274435</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>961895141.3562126</v>
+        <v>1192700960.725962</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1319040252625012</v>
+        <v>0.1659491990112406</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04666650446026507</v>
+        <v>0.03459650508831821</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4317842862.849071</v>
+        <v>4728922431.501785</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1392682233433062</v>
+        <v>0.1124921827268435</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04375936124073226</v>
+        <v>0.05802411077595071</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3403451699.898215</v>
+        <v>3054825085.600695</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1297833852558063</v>
+        <v>0.1846782950297712</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02652800758991216</v>
+        <v>0.03537257924163843</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3404197275.383226</v>
+        <v>4400797460.693311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1161836373054784</v>
+        <v>0.1635399501676595</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03310370532813273</v>
+        <v>0.03306124274008469</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4991095218.716865</v>
+        <v>3645797855.250333</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2165422616811927</v>
+        <v>0.1475119371911432</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02648915687606258</v>
+        <v>0.0269391248459016</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1363964617.123822</v>
+        <v>1344216286.67509</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1247801640072436</v>
+        <v>0.1393979504457205</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03578970999368247</v>
+        <v>0.0372752597479994</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4205323127.404104</v>
+        <v>4402561906.456594</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1247994501270608</v>
+        <v>0.1333475076552714</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01776165645633149</v>
+        <v>0.02539306752113392</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1584539454.58</v>
+        <v>1208874655.330866</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1565916622632426</v>
+        <v>0.1596536030007414</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03604215446130563</v>
+        <v>0.02665137587378907</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4637948429.889868</v>
+        <v>3834780165.25942</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1283341080271901</v>
+        <v>0.1171888060918</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04234897632210098</v>
+        <v>0.04079153559882653</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3456107235.569828</v>
+        <v>3067593576.970729</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1946824499079125</v>
+        <v>0.1381868037816482</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03157490742415518</v>
+        <v>0.02232020995105395</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2687009421.553186</v>
+        <v>2746962481.020418</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1704489551310309</v>
+        <v>0.1310225036889587</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03159866375906374</v>
+        <v>0.02579319991939422</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1998124662.789073</v>
+        <v>1810728369.195915</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1657243918430574</v>
+        <v>0.1188775113883217</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04804275389932417</v>
+        <v>0.03320553004325451</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4438178815.387166</v>
+        <v>5548608078.38759</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08143807941312226</v>
+        <v>0.06965660301780464</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0368162705878086</v>
+        <v>0.04765647146994475</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,13 +2222,13 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3713301015.96863</v>
+        <v>4142666538.246647</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1752946922643453</v>
+        <v>0.1744944071341988</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03182676754537835</v>
+        <v>0.03428021661065649</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4195691105.32</v>
+        <v>5097205541.820943</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1363837938153229</v>
+        <v>0.1079235685480728</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03059063458640288</v>
+        <v>0.01991514551655085</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3917072648.879043</v>
+        <v>5494594857.996828</v>
       </c>
       <c r="F66" t="n">
-        <v>0.116000536333744</v>
+        <v>0.1038280033328657</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04526258111020191</v>
+        <v>0.04876049763213661</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3102022452.809005</v>
+        <v>2290573859.063891</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08608327841613486</v>
+        <v>0.07281498763700534</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03158037248317</v>
+        <v>0.04651383061975005</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4301643860.501724</v>
+        <v>4864700382.150788</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1461896993294734</v>
+        <v>0.1190158248165722</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03344123620625314</v>
+        <v>0.04333918503998812</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1540390374.476663</v>
+        <v>2158140148.138899</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1491790744004112</v>
+        <v>0.1413920624662952</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0515218903713446</v>
+        <v>0.04627378636405257</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3017513249.955774</v>
+        <v>2439210418.657988</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07162510928046625</v>
+        <v>0.08875732743962424</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03590006235644731</v>
+        <v>0.03577290746042995</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4615915604.532776</v>
+        <v>3456043734.751312</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1661767632666034</v>
+        <v>0.1564410644955984</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02793880026212424</v>
+        <v>0.02239968714773323</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2198692365.837796</v>
+        <v>1707383846.209714</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07295419579387701</v>
+        <v>0.07485791392249072</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03802973754827199</v>
+        <v>0.04590053613572272</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3043015855.302907</v>
+        <v>2806961157.729812</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09981619978079749</v>
+        <v>0.07802061573988052</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03887271825714942</v>
+        <v>0.04432968637487016</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3382923853.369061</v>
+        <v>3861514712.055079</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1728643612401917</v>
+        <v>0.1159403778985333</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0321163103465265</v>
+        <v>0.03067751018191709</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1878337870.883006</v>
+        <v>1651773591.111362</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1209575511933092</v>
+        <v>0.1152990260942926</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03219953170721186</v>
+        <v>0.02379231828922521</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3369696038.652452</v>
+        <v>3755195855.909763</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1195304802106787</v>
+        <v>0.1062419404136707</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03092902380863409</v>
+        <v>0.02270210128038104</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1769868254.224738</v>
+        <v>1730112594.57585</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1340385286489331</v>
+        <v>0.1464889300565734</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02398402321592691</v>
+        <v>0.02726019893737083</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4183496232.225037</v>
+        <v>3845359543.787873</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1084502434074355</v>
+        <v>0.08645060564188063</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03533221126326393</v>
+        <v>0.05380545685475658</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1592797872.286466</v>
+        <v>1799894240.208853</v>
       </c>
       <c r="F79" t="n">
-        <v>0.167983163374215</v>
+        <v>0.1519625872814771</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03339635955636606</v>
+        <v>0.03723859142893379</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4827634515.309274</v>
+        <v>5453078321.136768</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1020724165964814</v>
+        <v>0.08344896205052471</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03199314687352868</v>
+        <v>0.03325565507965927</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4877970986.407522</v>
+        <v>4714311277.272739</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1250919464610461</v>
+        <v>0.134279211669501</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03060464449348254</v>
+        <v>0.02418445990983987</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5668143080.122562</v>
+        <v>3425295167.586162</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2095972162483024</v>
+        <v>0.1542035760525005</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02661988616149854</v>
+        <v>0.02765472055041546</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2392163776.173268</v>
+        <v>2486636903.836415</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1176373576999246</v>
+        <v>0.09877301166040801</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03101554222821716</v>
+        <v>0.02866522847902622</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2546916626.174709</v>
+        <v>2044846567.684634</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1156148024942259</v>
+        <v>0.1151544410172035</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05132464054034264</v>
+        <v>0.05199684854292298</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2811498492.736621</v>
+        <v>2589693937.037947</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1808951434779614</v>
+        <v>0.1853621132292227</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04923454048580544</v>
+        <v>0.03560009040474588</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2663341353.390209</v>
+        <v>2124724162.841461</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1340484012599097</v>
+        <v>0.1282608860239962</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02051944761101312</v>
+        <v>0.01745084719468077</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>991159272.2120914</v>
+        <v>1103534981.922211</v>
       </c>
       <c r="F87" t="n">
-        <v>0.137921979953684</v>
+        <v>0.1168160644454179</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02725583230347917</v>
+        <v>0.04282352434539908</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2330261745.356044</v>
+        <v>2919295046.489165</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1734352968393858</v>
+        <v>0.1516950677081084</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03380325268294176</v>
+        <v>0.02473528108199579</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2431481384.856781</v>
+        <v>2970373880.574477</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1379583080644585</v>
+        <v>0.1041760571225633</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02620530593145835</v>
+        <v>0.03300694465177134</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1592464692.610689</v>
+        <v>2117368550.880085</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1147680495847592</v>
+        <v>0.09432369075665842</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04771084399015147</v>
+        <v>0.03614005666189685</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1993796510.720075</v>
+        <v>1408481092.722684</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1255655155114195</v>
+        <v>0.1214073302987484</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04876031343966095</v>
+        <v>0.04390256986989979</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1871367985.736894</v>
+        <v>2110613858.727538</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09152630997772462</v>
+        <v>0.08614030868039078</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03939517760155894</v>
+        <v>0.0355106395450441</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4862539812.628479</v>
+        <v>3061281506.173132</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1270330210715793</v>
+        <v>0.1320391362414406</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03430174930680129</v>
+        <v>0.05467149001937281</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2476570567.336203</v>
+        <v>2015006514.367898</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1336489154279094</v>
+        <v>0.1174897173755947</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03346505307171876</v>
+        <v>0.04010463809291949</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2162385003.422967</v>
+        <v>2035279663.190085</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1026219831986093</v>
+        <v>0.1138062813387932</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03622989187589225</v>
+        <v>0.03992428908494725</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2372385586.604174</v>
+        <v>1764208096.864985</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08967683207330662</v>
+        <v>0.1267617754457048</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03921698629460417</v>
+        <v>0.03687497604855808</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4052848226.005505</v>
+        <v>4274091938.200466</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1424678260901938</v>
+        <v>0.1751392015704706</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02072475189011025</v>
+        <v>0.02312304201272395</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2947275117.897617</v>
+        <v>2490056621.306757</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1255072192969051</v>
+        <v>0.08611154504548259</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02146996272903017</v>
+        <v>0.0207602170423096</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2681841699.076005</v>
+        <v>2321523170.078902</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1360506409304674</v>
+        <v>0.09721268466111654</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03121049102022997</v>
+        <v>0.03141649626876823</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4478687717.217604</v>
+        <v>3327709789.253699</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1166046176991954</v>
+        <v>0.1254661288024083</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02045881516026788</v>
+        <v>0.02651042341085647</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3427747805.38127</v>
+        <v>3148843580.512024</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1782843790902285</v>
+        <v>0.1365403735585976</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05105381320914343</v>
+        <v>0.04872258376847421</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_484.xlsx
+++ b/output/fit_clients/fit_round_484.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2499198658.030288</v>
+        <v>2330753633.476031</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09743142217753453</v>
+        <v>0.07605350382277072</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03682691779427381</v>
+        <v>0.03912425174518628</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2343190877.777342</v>
+        <v>2335631188.062366</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1312349502321039</v>
+        <v>0.1623911734840581</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04198581909932646</v>
+        <v>0.03436542038146976</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4561133373.635692</v>
+        <v>3335752386.886149</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1584511949914508</v>
+        <v>0.1267278723497442</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0240128722548906</v>
+        <v>0.03472849815127051</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>244</v>
+      </c>
+      <c r="J4" t="n">
+        <v>482</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4134788636.475749</v>
+        <v>3392707376.406187</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08125272527257167</v>
+        <v>0.09680009909901173</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03383998132463242</v>
+        <v>0.03580518043755794</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>205</v>
+      </c>
+      <c r="J5" t="n">
+        <v>483</v>
+      </c>
+      <c r="K5" t="n">
+        <v>26.42291211812723</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2876169721.273604</v>
+        <v>2743412783.65912</v>
       </c>
       <c r="F6" t="n">
-        <v>0.095846898070872</v>
+        <v>0.1369450996032446</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05517718045740727</v>
+        <v>0.04467337966358671</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2179624059.424793</v>
+        <v>2431838897.382319</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09950373715032103</v>
+        <v>0.0826621814088452</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0308265974741243</v>
+        <v>0.04162155845219649</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3707879974.659055</v>
+        <v>3074887638.271812</v>
       </c>
       <c r="F8" t="n">
-        <v>0.186121995143938</v>
+        <v>0.1369978272478739</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02451490077014421</v>
+        <v>0.03133614424033248</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1592490509.324507</v>
+        <v>1733096457.633756</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1333657715051218</v>
+        <v>0.1815655174349245</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02776288528138133</v>
+        <v>0.02565451082304295</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +777,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4075510697.709595</v>
+        <v>4712725344.028231</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1888735237166705</v>
+        <v>0.1687935413397921</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03970910920165753</v>
+        <v>0.04632495458524907</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>367</v>
+      </c>
+      <c r="J10" t="n">
+        <v>484</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3846236168.928325</v>
+        <v>3073139277.468895</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1775884912268579</v>
+        <v>0.1721398769062625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03264820483637138</v>
+        <v>0.0369369224696524</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>203</v>
+      </c>
+      <c r="J11" t="n">
+        <v>483</v>
+      </c>
+      <c r="K11" t="n">
+        <v>22.08664525184644</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +855,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3300721287.293345</v>
+        <v>2997936980.138836</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1437736941782531</v>
+        <v>0.1639437363357261</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05316136815501226</v>
+        <v>0.03638680168999271</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +890,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4741840234.152292</v>
+        <v>4702953374.399056</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0877374677477917</v>
+        <v>0.09043534028247584</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0306746955053957</v>
+        <v>0.02567523259288438</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>250</v>
+      </c>
+      <c r="J13" t="n">
+        <v>484</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2387516853.146327</v>
+        <v>2585941344.626771</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1345302526718427</v>
+        <v>0.1855932773203713</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03159278030528484</v>
+        <v>0.03738355457137527</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>112</v>
+      </c>
+      <c r="J14" t="n">
+        <v>483</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.32988999375474</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1618239847.077061</v>
+        <v>1189563861.476721</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1026139371721605</v>
+        <v>0.103050243670385</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03184296376971164</v>
+        <v>0.04072460283177064</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2244989117.890309</v>
+        <v>2829013798.074413</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07236579816658996</v>
+        <v>0.07616016923418112</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04453530450507262</v>
+        <v>0.03589402559938189</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5043635931.599147</v>
+        <v>5017682295.603506</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1056338736759488</v>
+        <v>0.1576225630752494</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04355581489971642</v>
+        <v>0.04847079376603686</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>237</v>
+      </c>
+      <c r="J17" t="n">
+        <v>483</v>
+      </c>
+      <c r="K17" t="n">
+        <v>29.24457009069966</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2716938369.34963</v>
+        <v>3293666745.106935</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1408844761067156</v>
+        <v>0.135364415709811</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02813672206645575</v>
+        <v>0.02790806411665803</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>130</v>
+      </c>
+      <c r="J18" t="n">
+        <v>480</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1065918910.65611</v>
+        <v>1193508941.526991</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1883405003026119</v>
+        <v>0.1398195855389611</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02721611509368545</v>
+        <v>0.02511191312503921</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2289788871.281471</v>
+        <v>1862484182.441893</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1221052925131206</v>
+        <v>0.1174412764158367</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01999732879423673</v>
+        <v>0.03148831616005437</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2626048242.056453</v>
+        <v>2605595336.002344</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08950578132367219</v>
+        <v>0.1000332783915403</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03497303299980238</v>
+        <v>0.027756941509813</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2625019425.5675</v>
+        <v>2481773838.849332</v>
       </c>
       <c r="F22" t="n">
-        <v>0.122081724935664</v>
+        <v>0.09615103088659797</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04964781055272349</v>
+        <v>0.03462186192046038</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>142</v>
+      </c>
+      <c r="J22" t="n">
+        <v>482</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1043798983.01584</v>
+        <v>1534553068.335798</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1170817536663761</v>
+        <v>0.1329960635778694</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04229408364236963</v>
+        <v>0.04103976174452507</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2785989385.213311</v>
+        <v>3558264892.110306</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09687114036160538</v>
+        <v>0.119082265209123</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02869874584826772</v>
+        <v>0.03133965350783054</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>153</v>
+      </c>
+      <c r="J24" t="n">
+        <v>484</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1165575006.665817</v>
+        <v>1378188052.823098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1222644118549098</v>
+        <v>0.09577630710856552</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01859896249594689</v>
+        <v>0.02572131250995853</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1361248588.73791</v>
+        <v>1448732199.044635</v>
       </c>
       <c r="F26" t="n">
-        <v>0.105715652766885</v>
+        <v>0.09095875603825163</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02714376766647677</v>
+        <v>0.0276267051698826</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4081107380.267569</v>
+        <v>3068119009.402511</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1223076707979191</v>
+        <v>0.1246625381077215</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01932743195872483</v>
+        <v>0.01667454519453668</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>216</v>
+      </c>
+      <c r="J27" t="n">
+        <v>483</v>
+      </c>
+      <c r="K27" t="n">
+        <v>19.8236334054253</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2471257228.441763</v>
+        <v>3028236191.825764</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1240725701953582</v>
+        <v>0.09559639814571153</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04020917737122234</v>
+        <v>0.05027923860980715</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>119</v>
+      </c>
+      <c r="J28" t="n">
+        <v>480</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3772108520.931262</v>
+        <v>4065288219.404571</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1280131360585234</v>
+        <v>0.1371870467698034</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03342633813244822</v>
+        <v>0.04322402222435609</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>383</v>
+      </c>
+      <c r="J29" t="n">
+        <v>483</v>
+      </c>
+      <c r="K29" t="n">
+        <v>26.10589520171908</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2117687919.718839</v>
+        <v>2254788314.823868</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1068892019026743</v>
+        <v>0.1184694766849705</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03457823046370201</v>
+        <v>0.02841496227238912</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1423765392.044879</v>
+        <v>1479040844.075619</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07722113056288267</v>
+        <v>0.09586663532343771</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03523195254975027</v>
+        <v>0.04309319970064966</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1717941489.243193</v>
+        <v>1553317236.506015</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09159178609416933</v>
+        <v>0.1069781483370091</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02878181411489488</v>
+        <v>0.03449459870192881</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2854671978.956183</v>
+        <v>2037776605.707467</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1768617119484137</v>
+        <v>0.1273320671918607</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05515134129380612</v>
+        <v>0.0510297628158229</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1154896694.406647</v>
+        <v>1277256615.457152</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1043827218477838</v>
+        <v>0.07534913504379963</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02716291248395921</v>
+        <v>0.02592216054254786</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>921024132.7594717</v>
+        <v>889460607.5339578</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1079239449081726</v>
+        <v>0.105658003208367</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04525723613416611</v>
+        <v>0.03152995404115001</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2015683444.703655</v>
+        <v>2955765798.277771</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1719763763886728</v>
+        <v>0.1453039439687702</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02320898257789692</v>
+        <v>0.01936141968682057</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2869601561.282671</v>
+        <v>2871578569.007658</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07225359012283483</v>
+        <v>0.08017618933322607</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03134657126998308</v>
+        <v>0.02875911833308386</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1378086119.001762</v>
+        <v>1539061742.259375</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1089815632411305</v>
+        <v>0.1199928870223236</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03587353882596411</v>
+        <v>0.03264882803181648</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1360692515.414698</v>
+        <v>1709072526.272582</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1589553904723399</v>
+        <v>0.138671317303888</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03027685245126379</v>
+        <v>0.02503420852029039</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1327901653.033005</v>
+        <v>1653815465.88607</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1613486352626521</v>
+        <v>0.1356206567007787</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05508011051247797</v>
+        <v>0.04551202250634397</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1800755508.947551</v>
+        <v>2159136482.599607</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1639307730390834</v>
+        <v>0.1302990223033616</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03491017916734884</v>
+        <v>0.04589706926844278</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4333708861.401478</v>
+        <v>2967061946.966898</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07744638668563777</v>
+        <v>0.09844968019622702</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03408074728105976</v>
+        <v>0.04563656742819475</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>209</v>
+      </c>
+      <c r="J42" t="n">
+        <v>483</v>
+      </c>
+      <c r="K42" t="n">
+        <v>22.70890396780966</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2783804594.919559</v>
+        <v>1909727550.91432</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1715825968738442</v>
+        <v>0.1661991857558418</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02092830608561686</v>
+        <v>0.01973259758082563</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2061921684.345826</v>
+        <v>2369517233.621213</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06998541095583993</v>
+        <v>0.07615588504548662</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02826992987766321</v>
+        <v>0.03122463244236649</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2072113686.794496</v>
+        <v>1984234974.734169</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1382643396533886</v>
+        <v>0.1490360625769261</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05470398739352277</v>
+        <v>0.0397951061823764</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5345749097.367608</v>
+        <v>4375335975.480438</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1236725708491772</v>
+        <v>0.1481802681325799</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05959179895265475</v>
+        <v>0.05338174975796291</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>285</v>
+      </c>
+      <c r="J46" t="n">
+        <v>483</v>
+      </c>
+      <c r="K46" t="n">
+        <v>28.23927742496072</v>
       </c>
     </row>
     <row r="47">
@@ -1746,17 +2092,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5151634804.475772</v>
+        <v>3550887968.111143</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1513543928336258</v>
+        <v>0.1604249130957724</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05415045971340109</v>
+        <v>0.05475465715800291</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>219</v>
+      </c>
+      <c r="J47" t="n">
+        <v>482</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2121,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4543092586.657629</v>
+        <v>4236584711.33198</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0669712572945844</v>
+        <v>0.07060420382341027</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02853587332986419</v>
+        <v>0.02475121658283144</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>242</v>
+      </c>
+      <c r="J48" t="n">
+        <v>484</v>
+      </c>
+      <c r="K48" t="n">
+        <v>29.32532305191698</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1453969547.118803</v>
+        <v>1423450949.922443</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1710359585573555</v>
+        <v>0.1464070075106768</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02908735188177864</v>
+        <v>0.04013909142919812</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2193,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3155806320.370596</v>
+        <v>3425253216.400658</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1389950777310994</v>
+        <v>0.11414386243469</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0473404067274435</v>
+        <v>0.04816398218002669</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>174</v>
+      </c>
+      <c r="J50" t="n">
+        <v>483</v>
+      </c>
+      <c r="K50" t="n">
+        <v>27.55310171816723</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2230,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1192700960.725962</v>
+        <v>1394609134.387062</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1659491990112406</v>
+        <v>0.1515931303753339</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03459650508831821</v>
+        <v>0.04217471409643366</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2271,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4728922431.501785</v>
+        <v>4888744806.083132</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1124921827268435</v>
+        <v>0.09090117058602216</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05802411077595071</v>
+        <v>0.04939053989832331</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>271</v>
+      </c>
+      <c r="J52" t="n">
+        <v>483</v>
+      </c>
+      <c r="K52" t="n">
+        <v>28.620434750491</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2308,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3054825085.600695</v>
+        <v>3433340105.189747</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1846782950297712</v>
+        <v>0.1643748889121022</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03537257924163843</v>
+        <v>0.03276716570587349</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2337,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4400797460.693311</v>
+        <v>3703974686.219784</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1635399501676595</v>
+        <v>0.1107909331724074</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03306124274008469</v>
+        <v>0.03426950863771758</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>255</v>
+      </c>
+      <c r="J54" t="n">
+        <v>484</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2372,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3645797855.250333</v>
+        <v>4163683648.53786</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1475119371911432</v>
+        <v>0.1726043075536326</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0269391248459016</v>
+        <v>0.02989764414494516</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>238</v>
+      </c>
+      <c r="J55" t="n">
+        <v>484</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1344216286.67509</v>
+        <v>1148719308.14242</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1393979504457205</v>
+        <v>0.1008229936501053</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0372752597479994</v>
+        <v>0.03526265664847196</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4402561906.456594</v>
+        <v>4473283944.138732</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1333475076552714</v>
+        <v>0.1272049866302965</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02539306752113392</v>
+        <v>0.02036521913751605</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>209</v>
+      </c>
+      <c r="J57" t="n">
+        <v>484</v>
+      </c>
+      <c r="K57" t="n">
+        <v>30.87170856208859</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1208874655.330866</v>
+        <v>1400822879.461028</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1596536030007414</v>
+        <v>0.1561238983830717</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02665137587378907</v>
+        <v>0.02468365366444449</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2514,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3834780165.25942</v>
+        <v>3972672521.535406</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1171888060918</v>
+        <v>0.08460294209840215</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04079153559882653</v>
+        <v>0.03082062607001483</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>237</v>
+      </c>
+      <c r="J59" t="n">
+        <v>484</v>
+      </c>
+      <c r="K59" t="n">
+        <v>30.14066515380183</v>
       </c>
     </row>
     <row r="60">
@@ -2110,16 +2557,25 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3067593576.970729</v>
+        <v>2573203077.325596</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1381868037816482</v>
+        <v>0.1608387652692405</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02232020995105395</v>
+        <v>0.02927548005821468</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>98</v>
+      </c>
+      <c r="J60" t="n">
+        <v>483</v>
+      </c>
+      <c r="K60" t="n">
+        <v>24.55603432182414</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2588,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2746962481.020418</v>
+        <v>2281258982.622026</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1310225036889587</v>
+        <v>0.1149150230976707</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02579319991939422</v>
+        <v>0.02437775672230763</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2623,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1810728369.195915</v>
+        <v>1579511599.789587</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1188775113883217</v>
+        <v>0.1839095941315955</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03320553004325451</v>
+        <v>0.03549885951849532</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2658,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5548608078.38759</v>
+        <v>3804589891.029977</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06965660301780464</v>
+        <v>0.07596803594857132</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04765647146994475</v>
+        <v>0.04018288267944194</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>241</v>
+      </c>
+      <c r="J63" t="n">
+        <v>484</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2699,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4142666538.246647</v>
+        <v>3396002504.307668</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1744944071341988</v>
+        <v>0.1719747884790055</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03428021661065649</v>
+        <v>0.02879528300107253</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>241</v>
+      </c>
+      <c r="J64" t="n">
+        <v>482</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2728,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5097205541.820943</v>
+        <v>4448469300.785077</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1079235685480728</v>
+        <v>0.1625361885879495</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01991514551655085</v>
+        <v>0.02758355191989751</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>339</v>
+      </c>
+      <c r="J65" t="n">
+        <v>484</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5494594857.996828</v>
+        <v>3956354215.178375</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1038280033328657</v>
+        <v>0.1467363870064924</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04876049763213661</v>
+        <v>0.03286131872150142</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>239</v>
+      </c>
+      <c r="J66" t="n">
+        <v>484</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2798,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2290573859.063891</v>
+        <v>3468825137.782599</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07281498763700534</v>
+        <v>0.08778338337908584</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04651383061975005</v>
+        <v>0.0384043651549174</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2839,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4864700382.150788</v>
+        <v>5232717827.465445</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1190158248165722</v>
+        <v>0.1285717126645798</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04333918503998812</v>
+        <v>0.05147759229248783</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>263</v>
+      </c>
+      <c r="J68" t="n">
+        <v>483</v>
+      </c>
+      <c r="K68" t="n">
+        <v>28.13183893817575</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2158140148.138899</v>
+        <v>1991542305.553822</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1413920624662952</v>
+        <v>0.1405385077992322</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04627378636405257</v>
+        <v>0.03688315013020464</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2439210418.657988</v>
+        <v>3272786851.408168</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08875732743962424</v>
+        <v>0.1030631974943683</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03577290746042995</v>
+        <v>0.03650687280530105</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>72</v>
+      </c>
+      <c r="J70" t="n">
+        <v>481</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2940,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3456043734.751312</v>
+        <v>3559899215.123406</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1564410644955984</v>
+        <v>0.1538754624297784</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02239968714773323</v>
+        <v>0.03382688072852782</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>326</v>
+      </c>
+      <c r="J71" t="n">
+        <v>484</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2981,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1707383846.209714</v>
+        <v>2267056286.988616</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07485791392249072</v>
+        <v>0.07554397570607803</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04590053613572272</v>
+        <v>0.04530545349357613</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2806961157.729812</v>
+        <v>2686151960.969684</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07802061573988052</v>
+        <v>0.07696515856873763</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04432968637487016</v>
+        <v>0.05061594834355006</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>46</v>
+      </c>
+      <c r="J73" t="n">
+        <v>481</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3045,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3861514712.055079</v>
+        <v>2519098594.164829</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1159403778985333</v>
+        <v>0.1429743064072603</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03067751018191709</v>
+        <v>0.02154952776152998</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>143</v>
+      </c>
+      <c r="J74" t="n">
+        <v>483</v>
+      </c>
+      <c r="K74" t="n">
+        <v>19.3919437956912</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1651773591.111362</v>
+        <v>1682192615.710798</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1152990260942926</v>
+        <v>0.1634247256527999</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02379231828922521</v>
+        <v>0.02826937349270174</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3755195855.909763</v>
+        <v>4279836827.069583</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1062419404136707</v>
+        <v>0.08479825022469792</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02270210128038104</v>
+        <v>0.03406302535233055</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>231</v>
+      </c>
+      <c r="J76" t="n">
+        <v>484</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1730112594.57585</v>
+        <v>1959034796.724873</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1464889300565734</v>
+        <v>0.1215829742055618</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02726019893737083</v>
+        <v>0.01946937988277095</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3845359543.787873</v>
+        <v>3255462796.231841</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08645060564188063</v>
+        <v>0.09862158153200892</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05380545685475658</v>
+        <v>0.05718926640834519</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>240</v>
+      </c>
+      <c r="J78" t="n">
+        <v>483</v>
+      </c>
+      <c r="K78" t="n">
+        <v>22.7910472908781</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1799894240.208853</v>
+        <v>1727376385.90755</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1519625872814771</v>
+        <v>0.1735337903184347</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03723859142893379</v>
+        <v>0.02517895468109599</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3265,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5453078321.136768</v>
+        <v>4503731532.035236</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08344896205052471</v>
+        <v>0.09229050848062614</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03325565507965927</v>
+        <v>0.03383448289909206</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>236</v>
+      </c>
+      <c r="J80" t="n">
+        <v>484</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3300,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4714311277.272739</v>
+        <v>3748991212.544322</v>
       </c>
       <c r="F81" t="n">
-        <v>0.134279211669501</v>
+        <v>0.1180387320790887</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02418445990983987</v>
+        <v>0.02169878329354949</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>226</v>
+      </c>
+      <c r="J81" t="n">
+        <v>484</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2726,16 +3335,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3425295167.586162</v>
+        <v>4565554610.40715</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1542035760525005</v>
+        <v>0.1520368610826085</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02765472055041546</v>
+        <v>0.02548503052673884</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>318</v>
+      </c>
+      <c r="J82" t="n">
+        <v>483</v>
+      </c>
+      <c r="K82" t="n">
+        <v>27.85632714035946</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2486636903.836415</v>
+        <v>2082776985.813427</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09877301166040801</v>
+        <v>0.1020133288638996</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02866522847902622</v>
+        <v>0.03888946196894831</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2044846567.684634</v>
+        <v>1983139273.288625</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1151544410172035</v>
+        <v>0.0788740003926043</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05199684854292298</v>
+        <v>0.04666691376568755</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2589693937.037947</v>
+        <v>3658596110.175472</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1853621132292227</v>
+        <v>0.1540067965936579</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03560009040474588</v>
+        <v>0.04034564112549915</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>72</v>
+      </c>
+      <c r="J85" t="n">
+        <v>484</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2124724162.841461</v>
+        <v>1902461283.1032</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1282608860239962</v>
+        <v>0.1278570047545969</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01745084719468077</v>
+        <v>0.02478747934067473</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1103534981.922211</v>
+        <v>1185538489.255563</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1168160644454179</v>
+        <v>0.1186981312834978</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04282352434539908</v>
+        <v>0.03059049403321281</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2919295046.489165</v>
+        <v>3628701101.346793</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1516950677081084</v>
+        <v>0.1120963402697632</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02473528108199579</v>
+        <v>0.02851860425728529</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>69</v>
+      </c>
+      <c r="J88" t="n">
+        <v>484</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2970373880.574477</v>
+        <v>2291657943.793849</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1041760571225633</v>
+        <v>0.1000118250723013</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03300694465177134</v>
+        <v>0.02615484658573306</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2117368550.880085</v>
+        <v>1670953369.012511</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09432369075665842</v>
+        <v>0.109567396505269</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03614005666189685</v>
+        <v>0.04333628076554882</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1408481092.722684</v>
+        <v>2074478549.485914</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1214073302987484</v>
+        <v>0.1495419730399036</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04390256986989979</v>
+        <v>0.0411285672772426</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2110613858.727538</v>
+        <v>2477216899.350891</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08614030868039078</v>
+        <v>0.1034455792247747</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0355106395450441</v>
+        <v>0.04073601640194215</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3061281506.173132</v>
+        <v>3770303560.041796</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1320391362414406</v>
+        <v>0.1246444826787145</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05467149001937281</v>
+        <v>0.04960115395967101</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>232</v>
+      </c>
+      <c r="J93" t="n">
+        <v>484</v>
+      </c>
+      <c r="K93" t="n">
+        <v>30.91908271309887</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2015006514.367898</v>
+        <v>1584889006.145579</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1174897173755947</v>
+        <v>0.1473402117607916</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04010463809291949</v>
+        <v>0.03853424218430904</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2035279663.190085</v>
+        <v>2122563227.886761</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1138062813387932</v>
+        <v>0.08355399153047673</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03992428908494725</v>
+        <v>0.04653437259314356</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1764208096.864985</v>
+        <v>1878120005.788288</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1267617754457048</v>
+        <v>0.1200835421405461</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03687497604855808</v>
+        <v>0.04093922508566047</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4274091938.200466</v>
+        <v>4406616760.095984</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1751392015704706</v>
+        <v>0.1110458835839407</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02312304201272395</v>
+        <v>0.02569917503753666</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>252</v>
+      </c>
+      <c r="J97" t="n">
+        <v>484</v>
+      </c>
+      <c r="K97" t="n">
+        <v>29.64056550570876</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2490056621.306757</v>
+        <v>3416049144.065627</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08611154504548259</v>
+        <v>0.101758004705421</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0207602170423096</v>
+        <v>0.02530210489749045</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>124</v>
+      </c>
+      <c r="J98" t="n">
+        <v>480</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2321523170.078902</v>
+        <v>2081669487.584345</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09721268466111654</v>
+        <v>0.1110833967628811</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03141649626876823</v>
+        <v>0.02593149512409427</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3327709789.253699</v>
+        <v>4669857275.310582</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1254661288024083</v>
+        <v>0.1239646807323271</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02651042341085647</v>
+        <v>0.02645387422812118</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>225</v>
+      </c>
+      <c r="J100" t="n">
+        <v>484</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3148843580.512024</v>
+        <v>2592812543.734638</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1365403735585976</v>
+        <v>0.1562803282643786</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04872258376847421</v>
+        <v>0.05277032289445998</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
